--- a/memo/20170921/Book1.xlsx
+++ b/memo/20170921/Book1.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20475" windowHeight="8280"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20475" windowHeight="8280" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="画面遷移図(920現時点)" sheetId="1" r:id="rId1"/>
+    <sheet name="ドメイン構成" sheetId="2" r:id="rId2"/>
+    <sheet name="開発するときのデバッグの手順" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ママコムアプリ全体の構成</t>
     <rPh sb="7" eb="9">
@@ -24,6 +24,139 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「development」→「html_assets」→「cording」内のphpファイルをコーディング対象とする
+これのファイル内容を変更してページを作成する</t>
+    <rPh sb="37" eb="38">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディング完了したら一階層上の「html」ディレクトリ内を一旦空にする
+(余計なファイルを消す)</t>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イッタン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヨケイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「complie.php」を実行する
+「html」ディレクトリ内に「cording」のphpファイルをhtmlレンダリングした結果のファイル
+(拡張子は「.html」)が生成される
+つまり、phpファイルをhtmlファイルに生成する</t>
+    <rPh sb="14" eb="16">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>カクチョウシ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリのソース(プロジェクト)をVisualStudioかXamarinか何かで開いて
+生成したhtmlファイルをリソース領域(assets)にすべて放り込む。
+ちなみに前のリソースファイルが残っていたら一回消すこと</t>
+    <rPh sb="37" eb="38">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あとはアプリをデバッグして動作確認する</t>
+    <rPh sb="13" eb="15">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発するときのデバッグの手順</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テジュン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -57,12 +190,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -71,8 +219,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4685,6 +4842,924 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47623</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733423" y="381001"/>
+          <a:ext cx="3105151" cy="4991100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>サーバー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="1028701"/>
+          <a:ext cx="2000250" cy="695324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>用ドメイン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(api)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6029324" y="904876"/>
+          <a:ext cx="2543176" cy="3143250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>アプリ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6374789" y="1414829"/>
+          <a:ext cx="1913792" cy="861645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ローカル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HTML</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6360502" y="2670663"/>
+          <a:ext cx="1942367" cy="896816"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Webview</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="2114551"/>
+          <a:ext cx="2000250" cy="695324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コンテンツ画像用ドメイン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(item)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400550" y="1447800"/>
+          <a:ext cx="1638300" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>WebVIew</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>内の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>JavaScript(Ajax)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アクセス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="1"/>
+          <a:endCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3307373" y="1352917"/>
+          <a:ext cx="3053129" cy="1766154"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="3267076"/>
+          <a:ext cx="2000250" cy="695324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>運営管理用ドメイン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(admin)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="4267201"/>
+          <a:ext cx="2000250" cy="695324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>店舗コンパネ用ドメイン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(shops)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3076575" y="4648200"/>
+          <a:ext cx="3619500" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>9/21</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>店舗用コンパネは必要かどうか</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>MTG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>運営管理用と統合してもいいかもしれないが</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セキュリティ関係上分割したほうがいいかもしれない</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>...)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>444377</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>444378</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7331685" y="2276474"/>
+          <a:ext cx="1" cy="394189"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>77665</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>402981</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>102578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8342434" y="2312378"/>
+          <a:ext cx="3080239" cy="486508"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アプリの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>WebView</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>はローカル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HTML</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>しか見せない</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>外への通知は基本</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>WebView</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>内の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Ajax</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>からする</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
@@ -4974,8 +6049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S70" sqref="S70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4996,23 +6071,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="70.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/memo/20170921/Book1.xlsx
+++ b/memo/20170921/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20475" windowHeight="8280" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20475" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図(920現時点)" sheetId="1" r:id="rId1"/>
@@ -224,13 +224,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5757,6 +5757,99 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>145807</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>336307</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>139211</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7721845" y="5124450"/>
+          <a:ext cx="3634154" cy="1249973"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>memo 9/22</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>運営管理用と店舗コンパネは</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コーディングは不要。直接</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>cake</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で画面作っていく形に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6049,8 +6142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S70" sqref="S70"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U65" sqref="U65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6072,7 +6165,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6087,8 +6180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6098,48 +6191,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
